--- a/pred_ohlcv/54_21/2020-01-12 MIX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-12 MIX ohlcv.xlsx
@@ -548,7 +548,7 @@
         <v>74609.6069</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>74609.6069</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>74609.6069</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>74609.6069</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>74609.6069</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>74609.6069</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>74609.6069</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>74609.6069</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>74609.6069</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>74609.6069</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>74609.6069</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>75009.6069</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>45009.6069</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>45009.6069</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>45009.6069</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>45209.6069</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>26298.5545</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>26298.5545</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>9042.281299999999</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-27309.92260000001</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-42230.5613</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>1558.133999999998</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>492278.4422</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>500240.9283</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>500699.15</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>500699.15</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>484089.964</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>579625.9353</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>579625.9353</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>523497.3881</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-1316265.0225</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-1210788.8665</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-1210788.8665</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-2133870.66</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-2210049.8183</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-2176593.2951</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-2000106.6468</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-159142.4514999997</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>1190951.545390974</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>1181814.239490974</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>1089933.203690974</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>1089933.203690974</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>1010602.961290974</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>1010802.961290974</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>979782.9612909741</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>979782.9612909741</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>1077574.578490974</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>1025206.921490974</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>842505.2005909742</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>843498.0708909741</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>828948.0708909741</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>514488.0191909741</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>734904.1986909742</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>734904.1986909742</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>477042.8580909742</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>343212.2509909743</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>344034.6203909743</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>344034.6203909743</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>345217.5404909743</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>316395.0767909742</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>181350.8845909743</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-4392724.306309024</v>
       </c>
       <c r="H188">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-4729964.962309024</v>
       </c>
       <c r="H189">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-4729594.592609025</v>
       </c>
       <c r="H190">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-4522641.604709025</v>
       </c>
       <c r="H199">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-4593783.434709025</v>
       </c>
       <c r="H200">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-4096474.987209025</v>
       </c>
       <c r="H201">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-4247120.200609025</v>
       </c>
       <c r="H202">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-4468060.326009025</v>
       </c>
       <c r="H211">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-4468060.326009025</v>
       </c>
       <c r="H212">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-4467558.051509025</v>
       </c>
       <c r="H213">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-4452511.573609025</v>
       </c>
       <c r="H216">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-4628020.869109025</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-4603502.784609025</v>
       </c>
       <c r="H219">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-4655533.034209025</v>
       </c>
       <c r="H220">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-4654257.478709025</v>
       </c>
       <c r="H222">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-4673353.010109025</v>
       </c>
       <c r="H223">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-4719531.292309025</v>
       </c>
       <c r="H226">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-4690841.406509025</v>
       </c>
       <c r="H230">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-4690452.084509025</v>
       </c>
       <c r="H234">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-4689951.707609026</v>
       </c>
       <c r="H236">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-4689951.707609026</v>
       </c>
       <c r="H237">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-4090149.600909026</v>
       </c>
       <c r="H242">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-4090149.600909026</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-4125277.512809025</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-4476797.103809026</v>
       </c>
       <c r="H266">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-4476797.103809026</v>
       </c>
       <c r="H267">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-4476797.103809026</v>
       </c>
       <c r="H268">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-4476797.103809026</v>
       </c>
       <c r="H269">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-4476797.103809026</v>
       </c>
       <c r="H270">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-4476797.103809026</v>
       </c>
       <c r="H271">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-4476797.103809026</v>
       </c>
       <c r="H272">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-12 MIX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-12 MIX ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>74609.6069</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -600,7 +600,7 @@
         <v>74609.6069</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>74609.6069</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>74609.6069</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>74609.6069</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>74609.6069</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>74609.6069</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>74609.6069</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>74609.6069</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>74609.6069</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>75009.6069</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>45009.6069</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>45009.6069</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>45009.6069</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>45209.6069</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>26298.5545</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>26298.5545</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>9042.281299999999</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>18659.95</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-27309.92260000001</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-42230.5613</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>1558.133999999998</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-46332.4774</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-8325.134700000002</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-8325.134700000002</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-52598.83</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-79922.40549999999</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-72632.02859999999</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-91219.3094</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-91219.3094</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-84881.5955</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-84881.5955</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-136778.1719</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>483626.9637000001</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>489873.1853000001</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>492278.4422</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>492278.4422</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>492278.4422</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>492278.4422</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>497364.5362</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>500240.9283</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>500699.15</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>500699.15</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>484089.964</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>579625.9353</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>579625.9353</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>523497.3881</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-1316265.0225</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-1210788.8665</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>1190951.545390974</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>1084100.063690974</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>1025206.921490974</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>842505.2005909742</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>843498.0708909741</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>828948.0708909741</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>514488.0191909741</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>734904.1986909742</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>734904.1986909742</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>477042.8580909742</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>343212.2509909743</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>344034.6203909743</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>344034.6203909743</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>345217.5404909743</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>316395.0767909742</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>181350.8845909743</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-4346408.307509024</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-4392724.306309024</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-4729964.962309024</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-4729594.592609025</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-4729594.592609025</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-4529394.592609025</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-4483394.592609025</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-4522974.592609025</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-4522641.604709025</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-4593783.434709025</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-4096474.987209025</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-4247120.200609025</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-4328906.267409025</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-4328906.267409025</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-4328906.267409025</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-4328906.267409025</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-4328906.267409025</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-4331568.597409025</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-4451948.997409025</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-4468060.326009025</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-4468060.326009025</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-4468060.326009025</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-4467558.051509025</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-4468555.331509025</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-4468555.331509025</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-4452511.573609025</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-4628020.869109025</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-4603502.784609025</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-4655533.034209025</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-4655533.034209025</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-4654257.478709025</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-4673353.010109025</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-4719531.292309025</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-4690841.406509025</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-4691141.406509025</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-4691141.406509025</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-4690452.084509025</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-4690952.084509025</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-4689951.707609026</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-4689951.707609026</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-4090149.600909026</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-4090149.600909026</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-4089667.737009026</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-4084795.348609026</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-4084202.677409025</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-4052412.432409025</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-4029716.569309025</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-4043066.901209025</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-4042903.942109025</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-4135943.942109025</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-4135943.942109025</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-4135943.942109025</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-4125443.942109025</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-4125277.512809025</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-4135277.512809025</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-4134870.766809025</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-4178227.943809025</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-4178227.943809025</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-4479069.783809026</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-4476797.103809026</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-4476797.103809026</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-4476797.103809026</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-4476797.103809026</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-4476797.103809026</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-4476797.103809026</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-4476797.103809026</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-4476797.103809026</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
